--- a/stocker_temp.xlsx
+++ b/stocker_temp.xlsx
@@ -3405,9 +3405,6 @@
     <t>axe1</t>
   </si>
   <si>
-    <t xml:space="preserve">axe2 </t>
-  </si>
-  <si>
     <t>Code_Produit</t>
   </si>
   <si>
@@ -3415,6 +3412,9 @@
   </si>
   <si>
     <t>Photo</t>
+  </si>
+  <si>
+    <t>axe2</t>
   </si>
 </sst>
 </file>
@@ -3705,8 +3705,8 @@
   </sheetPr>
   <dimension ref="A1:CW551"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3724,14 +3724,15 @@
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
     <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:101" ht="14.25">
       <c r="A1" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -3773,13 +3774,13 @@
         <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>1127</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>

--- a/stocker_temp.xlsx
+++ b/stocker_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="1133">
   <si>
     <t>Désignation:</t>
   </si>
@@ -3415,6 +3415,9 @@
   </si>
   <si>
     <t>axe2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCT=E500329 </t>
   </si>
 </sst>
 </file>
@@ -3705,8 +3708,8 @@
   </sheetPr>
   <dimension ref="A1:CW551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="E448" workbookViewId="0">
+      <selection activeCell="O485" sqref="O485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3717,6 +3720,7 @@
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.42578125" customWidth="1"/>
@@ -3895,7 +3899,9 @@
       <c r="K2" s="6">
         <v>6</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="N2" s="6">
         <v>18</v>
@@ -3904,7 +3910,9 @@
         <v>54</v>
       </c>
       <c r="P2" s="7"/>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="R2" s="8" t="s">
         <v>18</v>
       </c>
@@ -4021,7 +4029,9 @@
       <c r="K3" s="6">
         <v>96</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="6">
         <v>66</v>
@@ -4030,7 +4040,9 @@
         <v>84</v>
       </c>
       <c r="P3" s="7"/>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="R3" s="8" t="s">
         <v>18</v>
       </c>
@@ -4277,7 +4289,9 @@
       <c r="K5" s="6">
         <v>0</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="6">
         <v>40</v>
@@ -4286,7 +4300,9 @@
         <v>43</v>
       </c>
       <c r="P5" s="7"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="R5" s="8" t="s">
         <v>18</v>
       </c>
@@ -16303,7 +16319,9 @@
       <c r="K102" s="6">
         <v>0</v>
       </c>
-      <c r="L102" s="7"/>
+      <c r="L102" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="M102" s="5"/>
       <c r="N102" s="6">
         <v>0</v>
@@ -16312,7 +16330,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="7"/>
-      <c r="Q102" s="3"/>
+      <c r="Q102" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="R102" s="8" t="s">
         <v>18</v>
       </c>
@@ -51891,7 +51911,9 @@
       <c r="K391" s="6">
         <v>2</v>
       </c>
-      <c r="L391" s="7"/>
+      <c r="L391" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="M391" s="5"/>
       <c r="N391" s="6">
         <v>3</v>
@@ -51900,7 +51922,9 @@
         <v>3</v>
       </c>
       <c r="P391" s="7"/>
-      <c r="Q391" s="3"/>
+      <c r="Q391" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="R391" s="8" t="s">
         <v>18</v>
       </c>
@@ -52009,7 +52033,9 @@
       <c r="K392" s="6">
         <v>2</v>
       </c>
-      <c r="L392" s="7"/>
+      <c r="L392" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="M392" s="5"/>
       <c r="N392" s="6">
         <v>2</v>
@@ -52018,7 +52044,9 @@
         <v>2</v>
       </c>
       <c r="P392" s="7"/>
-      <c r="Q392" s="3"/>
+      <c r="Q392" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="R392" s="8" t="s">
         <v>18</v>
       </c>
@@ -52257,7 +52285,9 @@
       <c r="K394" s="6">
         <v>3</v>
       </c>
-      <c r="L394" s="7"/>
+      <c r="L394" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="M394" s="5"/>
       <c r="N394" s="6">
         <v>2</v>
@@ -52266,7 +52296,9 @@
         <v>2</v>
       </c>
       <c r="P394" s="7"/>
-      <c r="Q394" s="3"/>
+      <c r="Q394" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="R394" s="8" t="s">
         <v>18</v>
       </c>
@@ -52507,7 +52539,9 @@
       <c r="K396" s="6">
         <v>1</v>
       </c>
-      <c r="L396" s="7"/>
+      <c r="L396" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="M396" s="5"/>
       <c r="N396" s="6">
         <v>2</v>
@@ -52516,7 +52550,9 @@
         <v>2</v>
       </c>
       <c r="P396" s="7"/>
-      <c r="Q396" s="3"/>
+      <c r="Q396" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="R396" s="8" t="s">
         <v>18</v>
       </c>
@@ -52625,7 +52661,9 @@
       <c r="K397" s="6">
         <v>1</v>
       </c>
-      <c r="L397" s="7"/>
+      <c r="L397" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="M397" s="5"/>
       <c r="N397" s="6">
         <v>1</v>
@@ -52634,7 +52672,9 @@
         <v>1</v>
       </c>
       <c r="P397" s="7"/>
-      <c r="Q397" s="3"/>
+      <c r="Q397" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="R397" s="8" t="s">
         <v>18</v>
       </c>
@@ -52743,7 +52783,9 @@
       <c r="K398" s="6">
         <v>1</v>
       </c>
-      <c r="L398" s="7"/>
+      <c r="L398" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="M398" s="5"/>
       <c r="N398" s="6">
         <v>2</v>
@@ -52752,7 +52794,9 @@
         <v>2</v>
       </c>
       <c r="P398" s="7"/>
-      <c r="Q398" s="3"/>
+      <c r="Q398" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="R398" s="8" t="s">
         <v>18</v>
       </c>
@@ -54489,7 +54533,9 @@
       <c r="K412" s="6">
         <v>20</v>
       </c>
-      <c r="L412" s="7"/>
+      <c r="L412" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M412" s="5"/>
       <c r="N412" s="6">
         <v>23</v>
@@ -54498,7 +54544,9 @@
         <v>23</v>
       </c>
       <c r="P412" s="7"/>
-      <c r="Q412" s="3"/>
+      <c r="Q412" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R412" s="8" t="s">
         <v>18</v>
       </c>
@@ -62517,7 +62565,9 @@
       <c r="K477" s="6">
         <v>0</v>
       </c>
-      <c r="L477" s="7"/>
+      <c r="L477" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="M477" s="5"/>
       <c r="N477" s="6">
         <v>89</v>
@@ -62526,7 +62576,9 @@
         <v>89</v>
       </c>
       <c r="P477" s="7"/>
-      <c r="Q477" s="3"/>
+      <c r="Q477" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="R477" s="8" t="s">
         <v>18</v>
       </c>
@@ -64677,7 +64729,9 @@
       <c r="K495" s="6">
         <v>0</v>
       </c>
-      <c r="L495" s="7"/>
+      <c r="L495" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="M495" s="5"/>
       <c r="N495" s="6" t="s">
         <v>1060</v>
@@ -64686,7 +64740,9 @@
         <v>1060</v>
       </c>
       <c r="P495" s="7"/>
-      <c r="Q495" s="3"/>
+      <c r="Q495" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="R495" s="8" t="s">
         <v>18</v>
       </c>
@@ -64803,7 +64859,9 @@
       <c r="K496" s="6">
         <v>0</v>
       </c>
-      <c r="L496" s="7"/>
+      <c r="L496" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="M496" s="5"/>
       <c r="N496" s="6">
         <v>143</v>
@@ -64812,7 +64870,9 @@
         <v>536</v>
       </c>
       <c r="P496" s="7"/>
-      <c r="Q496" s="3"/>
+      <c r="Q496" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="R496" s="8" t="s">
         <v>18</v>
       </c>
@@ -65051,7 +65111,9 @@
       <c r="K498" s="6">
         <v>900</v>
       </c>
-      <c r="L498" s="7"/>
+      <c r="L498" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="M498" s="5"/>
       <c r="N498" s="6">
         <v>0</v>
@@ -65060,7 +65122,9 @@
         <v>0</v>
       </c>
       <c r="P498" s="7"/>
-      <c r="Q498" s="3"/>
+      <c r="Q498" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="R498" s="8" t="s">
         <v>18</v>
       </c>
@@ -66155,7 +66219,9 @@
       <c r="K507" s="6">
         <v>40</v>
       </c>
-      <c r="L507" s="7"/>
+      <c r="L507" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="M507" s="5"/>
       <c r="N507" s="6">
         <v>21</v>
@@ -66164,7 +66230,9 @@
         <v>21</v>
       </c>
       <c r="P507" s="7"/>
-      <c r="Q507" s="3"/>
+      <c r="Q507" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="R507" s="8" t="s">
         <v>18</v>
       </c>
@@ -66391,7 +66459,9 @@
       <c r="K509" s="6">
         <v>0</v>
       </c>
-      <c r="L509" s="7"/>
+      <c r="L509" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M509" s="5"/>
       <c r="N509" s="6" t="s">
         <v>1041</v>
@@ -66400,7 +66470,9 @@
         <v>1041</v>
       </c>
       <c r="P509" s="7"/>
-      <c r="Q509" s="3"/>
+      <c r="Q509" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R509" s="8" t="s">
         <v>18</v>
       </c>
@@ -66509,7 +66581,9 @@
       <c r="K510" s="6">
         <v>2</v>
       </c>
-      <c r="L510" s="7"/>
+      <c r="L510" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M510" s="5"/>
       <c r="N510" s="6">
         <v>1</v>
@@ -66518,7 +66592,9 @@
         <v>1</v>
       </c>
       <c r="P510" s="7"/>
-      <c r="Q510" s="3"/>
+      <c r="Q510" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R510" s="8" t="s">
         <v>18</v>
       </c>
@@ -66627,7 +66703,9 @@
       <c r="K511" s="6">
         <v>0</v>
       </c>
-      <c r="L511" s="7"/>
+      <c r="L511" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M511" s="5"/>
       <c r="N511" s="6">
         <v>1</v>
@@ -66636,7 +66714,9 @@
         <v>1</v>
       </c>
       <c r="P511" s="7"/>
-      <c r="Q511" s="3"/>
+      <c r="Q511" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R511" s="8" t="s">
         <v>18</v>
       </c>
@@ -66745,7 +66825,9 @@
       <c r="K512" s="6">
         <v>1</v>
       </c>
-      <c r="L512" s="7"/>
+      <c r="L512" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M512" s="5"/>
       <c r="N512" s="6">
         <v>0</v>
@@ -66754,7 +66836,9 @@
         <v>0</v>
       </c>
       <c r="P512" s="7"/>
-      <c r="Q512" s="3"/>
+      <c r="Q512" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R512" s="8" t="s">
         <v>18</v>
       </c>
@@ -66993,7 +67077,9 @@
       <c r="K514" s="6">
         <v>0</v>
       </c>
-      <c r="L514" s="7"/>
+      <c r="L514" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M514" s="5"/>
       <c r="N514" s="6">
         <v>1</v>
@@ -67002,7 +67088,9 @@
         <v>1</v>
       </c>
       <c r="P514" s="7"/>
-      <c r="Q514" s="3"/>
+      <c r="Q514" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R514" s="8" t="s">
         <v>18</v>
       </c>
@@ -67111,7 +67199,9 @@
       <c r="K515" s="6">
         <v>1</v>
       </c>
-      <c r="L515" s="7"/>
+      <c r="L515" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M515" s="5"/>
       <c r="N515" s="6">
         <v>4</v>
@@ -67120,7 +67210,9 @@
         <v>4</v>
       </c>
       <c r="P515" s="7"/>
-      <c r="Q515" s="3"/>
+      <c r="Q515" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R515" s="8" t="s">
         <v>18</v>
       </c>
@@ -67229,7 +67321,9 @@
       <c r="K516" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="L516" s="7"/>
+      <c r="L516" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M516" s="5"/>
       <c r="N516" s="6" t="s">
         <v>1041</v>
@@ -67238,7 +67332,9 @@
         <v>1041</v>
       </c>
       <c r="P516" s="7"/>
-      <c r="Q516" s="3"/>
+      <c r="Q516" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R516" s="8" t="s">
         <v>18</v>
       </c>
@@ -67347,7 +67443,9 @@
       <c r="K517" s="6">
         <v>20</v>
       </c>
-      <c r="L517" s="7"/>
+      <c r="L517" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M517" s="5"/>
       <c r="N517" s="6">
         <v>20</v>
@@ -67356,7 +67454,9 @@
         <v>20</v>
       </c>
       <c r="P517" s="7"/>
-      <c r="Q517" s="3"/>
+      <c r="Q517" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R517" s="8" t="s">
         <v>18</v>
       </c>
@@ -67465,7 +67565,9 @@
       <c r="K518" s="6">
         <v>20</v>
       </c>
-      <c r="L518" s="7"/>
+      <c r="L518" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M518" s="5"/>
       <c r="N518" s="6">
         <v>46</v>
@@ -67474,7 +67576,9 @@
         <v>46</v>
       </c>
       <c r="P518" s="7"/>
-      <c r="Q518" s="3"/>
+      <c r="Q518" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R518" s="8" t="s">
         <v>18</v>
       </c>
@@ -67583,7 +67687,9 @@
       <c r="K519" s="6">
         <v>0</v>
       </c>
-      <c r="L519" s="7"/>
+      <c r="L519" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M519" s="5"/>
       <c r="N519" s="6">
         <v>40</v>
@@ -67592,7 +67698,9 @@
         <v>40</v>
       </c>
       <c r="P519" s="7"/>
-      <c r="Q519" s="3"/>
+      <c r="Q519" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R519" s="8" t="s">
         <v>18</v>
       </c>
@@ -67701,7 +67809,9 @@
       <c r="K520" s="6">
         <v>15</v>
       </c>
-      <c r="L520" s="7"/>
+      <c r="L520" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M520" s="5"/>
       <c r="N520" s="6">
         <v>25</v>
@@ -67710,7 +67820,9 @@
         <v>25</v>
       </c>
       <c r="P520" s="7"/>
-      <c r="Q520" s="3"/>
+      <c r="Q520" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R520" s="8" t="s">
         <v>18</v>
       </c>
@@ -67819,7 +67931,9 @@
       <c r="K521" s="6">
         <v>0</v>
       </c>
-      <c r="L521" s="7"/>
+      <c r="L521" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M521" s="5"/>
       <c r="N521" s="6">
         <v>30</v>
@@ -67828,7 +67942,9 @@
         <v>30</v>
       </c>
       <c r="P521" s="7"/>
-      <c r="Q521" s="3"/>
+      <c r="Q521" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R521" s="8" t="s">
         <v>18</v>
       </c>
@@ -67937,7 +68053,9 @@
       <c r="K522" s="6">
         <v>0</v>
       </c>
-      <c r="L522" s="7"/>
+      <c r="L522" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M522" s="5"/>
       <c r="N522" s="6">
         <v>40</v>
@@ -67946,7 +68064,9 @@
         <v>40</v>
       </c>
       <c r="P522" s="7"/>
-      <c r="Q522" s="3"/>
+      <c r="Q522" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R522" s="8" t="s">
         <v>18</v>
       </c>
@@ -68055,7 +68175,9 @@
       <c r="K523" s="6">
         <v>0</v>
       </c>
-      <c r="L523" s="7"/>
+      <c r="L523" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M523" s="5"/>
       <c r="N523" s="6">
         <v>40</v>
@@ -68064,7 +68186,9 @@
         <v>40</v>
       </c>
       <c r="P523" s="7"/>
-      <c r="Q523" s="3"/>
+      <c r="Q523" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R523" s="8" t="s">
         <v>18</v>
       </c>
@@ -68181,7 +68305,9 @@
       <c r="K524" s="6">
         <v>20</v>
       </c>
-      <c r="L524" s="7"/>
+      <c r="L524" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M524" s="5"/>
       <c r="N524" s="6">
         <v>40</v>
@@ -68190,7 +68316,9 @@
         <v>40</v>
       </c>
       <c r="P524" s="7"/>
-      <c r="Q524" s="3"/>
+      <c r="Q524" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R524" s="8" t="s">
         <v>18</v>
       </c>
@@ -68559,7 +68687,9 @@
       <c r="K527" s="6">
         <v>60</v>
       </c>
-      <c r="L527" s="7"/>
+      <c r="L527" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="M527" s="5"/>
       <c r="N527" s="6">
         <v>0</v>
@@ -68568,7 +68698,9 @@
         <v>0</v>
       </c>
       <c r="P527" s="7"/>
-      <c r="Q527" s="3"/>
+      <c r="Q527" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="R527" s="8" t="s">
         <v>18</v>
       </c>
@@ -68685,7 +68817,9 @@
       <c r="K528" s="6">
         <v>60</v>
       </c>
-      <c r="L528" s="7"/>
+      <c r="L528" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="M528" s="5"/>
       <c r="N528" s="6">
         <v>30</v>
@@ -68694,7 +68828,9 @@
         <v>30</v>
       </c>
       <c r="P528" s="7"/>
-      <c r="Q528" s="3"/>
+      <c r="Q528" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="R528" s="8" t="s">
         <v>18</v>
       </c>
@@ -69193,7 +69329,9 @@
       <c r="K532" s="6">
         <v>0</v>
       </c>
-      <c r="L532" s="7"/>
+      <c r="L532" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M532" s="5"/>
       <c r="N532" s="6">
         <v>18</v>
@@ -69202,7 +69340,9 @@
         <v>18</v>
       </c>
       <c r="P532" s="7"/>
-      <c r="Q532" s="3"/>
+      <c r="Q532" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R532" s="8" t="s">
         <v>18</v>
       </c>
@@ -69319,7 +69459,9 @@
       <c r="K533" s="6">
         <v>1</v>
       </c>
-      <c r="L533" s="7"/>
+      <c r="L533" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M533" s="5"/>
       <c r="N533" s="6">
         <v>2</v>
@@ -69328,7 +69470,9 @@
         <v>2</v>
       </c>
       <c r="P533" s="7"/>
-      <c r="Q533" s="3"/>
+      <c r="Q533" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R533" s="8" t="s">
         <v>18</v>
       </c>
@@ -69445,7 +69589,9 @@
       <c r="K534" s="6">
         <v>1</v>
       </c>
-      <c r="L534" s="7"/>
+      <c r="L534" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M534" s="5"/>
       <c r="N534" s="6">
         <v>1</v>
@@ -69454,7 +69600,9 @@
         <v>1</v>
       </c>
       <c r="P534" s="7"/>
-      <c r="Q534" s="3"/>
+      <c r="Q534" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R534" s="8" t="s">
         <v>18</v>
       </c>
@@ -69827,7 +69975,9 @@
       <c r="K537" s="6">
         <v>4</v>
       </c>
-      <c r="L537" s="7"/>
+      <c r="L537" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="M537" s="5"/>
       <c r="N537" s="6">
         <v>4</v>
@@ -69837,7 +69987,7 @@
       </c>
       <c r="P537" s="7"/>
       <c r="Q537" s="8" t="s">
-        <v>44</v>
+        <v>1132</v>
       </c>
       <c r="R537" s="8" t="s">
         <v>18</v>

--- a/stocker_temp.xlsx
+++ b/stocker_temp.xlsx
@@ -3708,8 +3708,8 @@
   </sheetPr>
   <dimension ref="A1:CW551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E448" workbookViewId="0">
-      <selection activeCell="O485" sqref="O485"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
